--- a/biology/Botanique/Calia/Calia.xlsx
+++ b/biology/Botanique/Calia/Calia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calia est un genre de plantes buissonnantes ou arbustives de la famille des Fabaceae.
 Ce sont des espèces originaires d'Amérique.
@@ -513,7 +525,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Calia arizonica  (S.Watson) Yakovlev — haricot mescal d'Arizona ;
 Calia gypsophila — haricot mescal de Guadeloupe ;
@@ -545,7 +559,9 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Calia secundiflora est une plante très toxique, du fait de la présence d'un alcaloïde, la cytisine, qui entraîne la mort par arrêt respiratoire en cas d'intoxication. Toutes les parties de la plante sont toxiques.
 </t>
